--- a/bin/Debug/stock.xlsx
+++ b/bin/Debug/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad5f6c703994014a/Documents/A-level/Coursework/Program/Stock Exchange Final Version/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{3C794271-128D-4DC4-85AD-1101692244DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FACF16-5872-4F58-B415-C064D98046B9}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3C794271-128D-4DC4-85AD-1101692244DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF1B24E-4F96-46E9-846B-2854F00F25D3}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{DA4D2FDC-0969-411F-8B49-12D3C6F835EC}"/>
   </bookViews>
